--- a/步驟規劃.xlsx
+++ b/步驟規劃.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FM_pc\Documents\勞Python\後半部\專題報告\Study-of-housing-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CA4414-D2C3-4934-8AFD-7F778C5F8121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F6822A-78B4-4B32-BDAD-56D38E6CFDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <r>
       <t xml:space="preserve">1. </t>
@@ -118,6 +119,46 @@
   </si>
   <si>
     <t>內政部網站下載 2023 或 2024 的租賃+買賣資料 ZIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縣市-地區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縣市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建物型態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坪數(區間)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屋齡(區間)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買和租差幾年回本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,13 +208,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -479,7 +523,7 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -491,6 +535,66 @@
     <row r="4" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5950D5-E2D6-4E8D-8339-8F9BB96D8B1D}">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
